--- a/EEE.xlsx
+++ b/EEE.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="14">
   <si>
     <t xml:space="preserve">University of New Hampshire</t>
   </si>
@@ -34,10 +34,10 @@
     <t xml:space="preserve">University of California Berkeley</t>
   </si>
   <si>
-    <t xml:space="preserve">Texas A&amp;M University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Illinois at Urbana-Champaign</t>
+    <t xml:space="preserve">Texas A&amp;M University College Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Illinois Urbana-Champaign</t>
   </si>
   <si>
     <t xml:space="preserve">Stanford University</t>
@@ -55,10 +55,7 @@
     <t xml:space="preserve">University of California Santa Barbara</t>
   </si>
   <si>
-    <t xml:space="preserve">University of Illinois Urbana-Champaign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rutgers, The State University New Jersey - New Brunswick</t>
+    <t xml:space="preserve">Rutgers State University New Brunswick</t>
   </si>
   <si>
     <t xml:space="preserve">Georgia Institute of Technology</t>
@@ -74,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -96,6 +93,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,8 +143,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -165,10 +172,10 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.57"/>
   </cols>
@@ -415,9 +422,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>11</v>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>2003</v>
@@ -439,7 +446,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>2005</v>
@@ -450,7 +457,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2006</v>
@@ -538,7 +545,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>2014</v>
